--- a/Caracteristica dos modelos.xlsx
+++ b/Caracteristica dos modelos.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Tes_Cap2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\Tes_Cap2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79EB60A0-5F7E-4068-8AA3-3057DD4044F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A9C9D9-61A6-41E8-BCFA-86CB1558B7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{19ABCF5C-4255-4DF0-ABD2-940F43648DFD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19ABCF5C-4255-4DF0-ABD2-940F43648DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>Modelo</t>
   </si>
@@ -54,12 +54,6 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>Correta</t>
-  </si>
-  <si>
-    <t>Extra</t>
-  </si>
-  <si>
     <t>ON</t>
   </si>
   <si>
@@ -97,13 +91,70 @@
   </si>
   <si>
     <t>Petroleo</t>
+  </si>
+  <si>
+    <t>GVAR M8</t>
+  </si>
+  <si>
+    <t>Exogenas</t>
+  </si>
+  <si>
+    <t>VECM - 2</t>
+  </si>
+  <si>
+    <t>Petroleo, Cambio</t>
+  </si>
+  <si>
+    <t>Extra (V1)</t>
+  </si>
+  <si>
+    <t>Correta (V0)</t>
+  </si>
+  <si>
+    <t>ON -U</t>
+  </si>
+  <si>
+    <t>ON -X</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>GVAR M9</t>
+  </si>
+  <si>
+    <t>GVAR M10</t>
+  </si>
+  <si>
+    <t>GVAR M11</t>
+  </si>
+  <si>
+    <t>GVAR M12</t>
+  </si>
+  <si>
+    <t>GVAR M13</t>
+  </si>
+  <si>
+    <t>GVAR M14</t>
+  </si>
+  <si>
+    <t>GVAR M15</t>
+  </si>
+  <si>
+    <t>GVAR M16</t>
+  </si>
+  <si>
+    <t>Feito</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +173,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -467,160 +524,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6729FF79-48B4-4B87-B66F-24592CD251E6}">
-  <dimension ref="B1:E11"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G18:G19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <f>+B11+1</f>
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <f>+B12+1</f>
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f>+B13+1</f>
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <f>+B14+1</f>
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f>+B15+1</f>
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <f>+B16+1</f>
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
+      <c r="E25" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E1" xr:uid="{1A177248-0019-412D-993D-2DF702E4B90C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E8">
-      <sortCondition ref="B1"/>
-    </sortState>
+  <autoFilter ref="B1:G17" xr:uid="{6729FF79-48B4-4B87-B66F-24592CD251E6}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="ON"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Correta (V0)"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="ON -U"/>
+        <filter val="ON -X"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
   </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Caracteristica dos modelos.xlsx
+++ b/Caracteristica dos modelos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\Tes_Cap2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Tes_Cap2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A9C9D9-61A6-41E8-BCFA-86CB1558B7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454D84B3-831E-4242-9240-6E9ACCB733EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19ABCF5C-4255-4DF0-ABD2-940F43648DFD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{19ABCF5C-4255-4DF0-ABD2-940F43648DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -57,27 +57,6 @@
     <t>ON</t>
   </si>
   <si>
-    <t>GVAR  M1</t>
-  </si>
-  <si>
-    <t>GVAR M2</t>
-  </si>
-  <si>
-    <t>GVAR M3</t>
-  </si>
-  <si>
-    <t>GVAR M6</t>
-  </si>
-  <si>
-    <t>GVAR M4</t>
-  </si>
-  <si>
-    <t>GVAR M5</t>
-  </si>
-  <si>
-    <t>GVAR M7</t>
-  </si>
-  <si>
     <t>Benchmark</t>
   </si>
   <si>
@@ -93,9 +72,6 @@
     <t>Petroleo</t>
   </si>
   <si>
-    <t>GVAR M8</t>
-  </si>
-  <si>
     <t>Exogenas</t>
   </si>
   <si>
@@ -120,34 +96,58 @@
     <t>New Name</t>
   </si>
   <si>
-    <t>GVAR M9</t>
-  </si>
-  <si>
-    <t>GVAR M10</t>
-  </si>
-  <si>
-    <t>GVAR M11</t>
-  </si>
-  <si>
-    <t>GVAR M12</t>
-  </si>
-  <si>
-    <t>GVAR M13</t>
-  </si>
-  <si>
-    <t>GVAR M14</t>
-  </si>
-  <si>
-    <t>GVAR M15</t>
-  </si>
-  <si>
-    <t>GVAR M16</t>
-  </si>
-  <si>
     <t>Feito</t>
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M16</t>
   </si>
 </sst>
 </file>
@@ -524,11 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6729FF79-48B4-4B87-B66F-24592CD251E6}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B2" sqref="B2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -557,270 +556,270 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <f t="shared" ref="B12:B17" si="0">+B11+1</f>
         <v>23</v>
       </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <f>+B11+1</f>
-        <v>23</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <f>+B12+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <f>+B13+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <f>+B14+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
         <v>4</v>
@@ -828,41 +827,41 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <f>+B15+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <f>+B16+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -883,62 +882,42 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G17" xr:uid="{6729FF79-48B4-4B87-B66F-24592CD251E6}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="ON"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Correta (V0)"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="ON -U"/>
-        <filter val="ON -X"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:G17" xr:uid="{6729FF79-48B4-4B87-B66F-24592CD251E6}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
